--- a/Data/20231222_published_h_estimates.xlsx
+++ b/Data/20231222_published_h_estimates.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Alter/Daus_WGS_Paper/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA782DB1-8E6C-8C46-9B17-6C6F4365AB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AA88AA-F0D3-3343-9E9C-CBC981CD1AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17880" windowHeight="19600" xr2:uid="{51F5D5FD-8FFD-2B40-8856-983D10A2450B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25280" windowHeight="19540" xr2:uid="{51F5D5FD-8FFD-2B40-8856-983D10A2450B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="215">
   <si>
     <t>Species</t>
   </si>
@@ -99,6 +98,591 @@
   </si>
   <si>
     <t>Island_fox</t>
+  </si>
+  <si>
+    <t>Apis_mellifera_scutellata</t>
+  </si>
+  <si>
+    <t>Bombyx_mandarina</t>
+  </si>
+  <si>
+    <t>Drosophila_melanogaster</t>
+  </si>
+  <si>
+    <t>Drosophila_pseudoobscura</t>
+  </si>
+  <si>
+    <t>Heliconius_melpomene_melpomene</t>
+  </si>
+  <si>
+    <t>Timema_bartmani</t>
+  </si>
+  <si>
+    <t>Timema_cristinae</t>
+  </si>
+  <si>
+    <t>Timema_californicum</t>
+  </si>
+  <si>
+    <t>Timema_podura</t>
+  </si>
+  <si>
+    <t>Timema_poppensis</t>
+  </si>
+  <si>
+    <t>African_honey_bee</t>
+  </si>
+  <si>
+    <t>Silkmoth</t>
+  </si>
+  <si>
+    <t>Fruit_fly</t>
+  </si>
+  <si>
+    <t>Postman_butterfly</t>
+  </si>
+  <si>
+    <t>T._bartmani</t>
+  </si>
+  <si>
+    <t>T._cristinae</t>
+  </si>
+  <si>
+    <t>T._californicum</t>
+  </si>
+  <si>
+    <t>T._podura</t>
+  </si>
+  <si>
+    <t>T._poppensis</t>
+  </si>
+  <si>
+    <t>Insecta</t>
+  </si>
+  <si>
+    <t>Corbett-Detig_2015</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pbio.1002112</t>
+  </si>
+  <si>
+    <t>Parker_2023</t>
+  </si>
+  <si>
+    <t>10.1111/jeb.14075</t>
+  </si>
+  <si>
+    <t>Octopu_bimaculoides</t>
+  </si>
+  <si>
+    <t>Panthera_leo</t>
+  </si>
+  <si>
+    <t>Panthera_tigris_altaica</t>
+  </si>
+  <si>
+    <t>Panthera_tigris_tigris</t>
+  </si>
+  <si>
+    <t>Panthera_uncia</t>
+  </si>
+  <si>
+    <t>Anopheles_gambiae</t>
+  </si>
+  <si>
+    <t>Bos_taurus</t>
+  </si>
+  <si>
+    <t>Caenorhabditis_briggsae</t>
+  </si>
+  <si>
+    <t>Caenorhabditis_elegans</t>
+  </si>
+  <si>
+    <t>Canis_lupus</t>
+  </si>
+  <si>
+    <t>Cynoglossus_semilaevis</t>
+  </si>
+  <si>
+    <t>Danio_rerio</t>
+  </si>
+  <si>
+    <t>Equus_ferus_przewalskii</t>
+  </si>
+  <si>
+    <t>Ficedula_albicollis</t>
+  </si>
+  <si>
+    <t>Gallus_gallus</t>
+  </si>
+  <si>
+    <t>Gasterosteus_aculeatus</t>
+  </si>
+  <si>
+    <t>Homo_sapiens</t>
+  </si>
+  <si>
+    <t>Lepisosteus_oculatus</t>
+  </si>
+  <si>
+    <t>Macaca_mulatta</t>
+  </si>
+  <si>
+    <t>Meleagris_gallopavo</t>
+  </si>
+  <si>
+    <t>Mus_musculus_castaneus</t>
+  </si>
+  <si>
+    <t>Oryzias_latipes</t>
+  </si>
+  <si>
+    <t>Ovis_canadensis</t>
+  </si>
+  <si>
+    <t>Papio_anubis</t>
+  </si>
+  <si>
+    <t>Sus_scrofa</t>
+  </si>
+  <si>
+    <t>Acinonyx_jubatus</t>
+  </si>
+  <si>
+    <t>Pogona_vitticeps</t>
+  </si>
+  <si>
+    <t>Anas_platyrhynchos</t>
+  </si>
+  <si>
+    <t>Heterocephalus_glaber</t>
+  </si>
+  <si>
+    <t>Apteryx_mantelli</t>
+  </si>
+  <si>
+    <t>Ailuropoda_melanoleuca</t>
+  </si>
+  <si>
+    <t>Amphimedon_queenslandica</t>
+  </si>
+  <si>
+    <t>Takifugu_rubripes</t>
+  </si>
+  <si>
+    <t>Cathartes_aura</t>
+  </si>
+  <si>
+    <t>Egretta_garzetta</t>
+  </si>
+  <si>
+    <t>Haliaeetus_albicilla</t>
+  </si>
+  <si>
+    <t>Haliaeetus_leucocephalus</t>
+  </si>
+  <si>
+    <t>Melopsittacus_undulatus</t>
+  </si>
+  <si>
+    <t>Nestor_notabilis</t>
+  </si>
+  <si>
+    <t>Nipponia_nippon</t>
+  </si>
+  <si>
+    <t>Pelecanus_crispus</t>
+  </si>
+  <si>
+    <t>Phalacrocorax_carbo</t>
+  </si>
+  <si>
+    <t>Pongo_abelii</t>
+  </si>
+  <si>
+    <t>Pongo_pygmaeus</t>
+  </si>
+  <si>
+    <t>Lingula_anatina</t>
+  </si>
+  <si>
+    <t>Sarcophilus_harrisii</t>
+  </si>
+  <si>
+    <t>Nanorana_parkeri</t>
+  </si>
+  <si>
+    <t>Pan_troglodytes_troglodytes</t>
+  </si>
+  <si>
+    <t>Pan_troglodytes_verus</t>
+  </si>
+  <si>
+    <t>Taeniopygia_guttata</t>
+  </si>
+  <si>
+    <t>Chlorocebus_aethiops_aethiops</t>
+  </si>
+  <si>
+    <t>Chlorocebus_aethiops_pygerythrus</t>
+  </si>
+  <si>
+    <t>Gorilla_beringei_beringei</t>
+  </si>
+  <si>
+    <t>Gorilla_beringei_graueri</t>
+  </si>
+  <si>
+    <t>Gorilla_gorilla_diehli</t>
+  </si>
+  <si>
+    <t>Gorilla_gorilla_gorilla</t>
+  </si>
+  <si>
+    <t>Balaenoptera_acutorostrata</t>
+  </si>
+  <si>
+    <t>Balaenoptera_physalus</t>
+  </si>
+  <si>
+    <t>Neophocaena_phocaenoides</t>
+  </si>
+  <si>
+    <t>Tursiops_truncatus</t>
+  </si>
+  <si>
+    <t>Falco_cherrug</t>
+  </si>
+  <si>
+    <t>Falco_peregrinus</t>
+  </si>
+  <si>
+    <t>Lipotes_vexillifer</t>
+  </si>
+  <si>
+    <t>California_two-spot_octopus</t>
+  </si>
+  <si>
+    <t>Mollusca</t>
+  </si>
+  <si>
+    <t>White_African_lion</t>
+  </si>
+  <si>
+    <t>African_lion</t>
+  </si>
+  <si>
+    <t>Amur_tiger_(TaeGeuk)</t>
+  </si>
+  <si>
+    <t>White_Bengal_tiger</t>
+  </si>
+  <si>
+    <t>Snow_leopard</t>
+  </si>
+  <si>
+    <t>African_malaria_mosquito</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>C._briggsae</t>
+  </si>
+  <si>
+    <t>Nematoda</t>
+  </si>
+  <si>
+    <t>C._elegans</t>
+  </si>
+  <si>
+    <t>Gray_wolf</t>
+  </si>
+  <si>
+    <t>Tongue_sole</t>
+  </si>
+  <si>
+    <t>Zebrafish</t>
+  </si>
+  <si>
+    <t>Przewalski's_horse</t>
+  </si>
+  <si>
+    <t>Collared_flycatcher</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Three-spined_stickleback</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Spotted_gar</t>
+  </si>
+  <si>
+    <t>Rhesus_macaque</t>
+  </si>
+  <si>
+    <t>Wild_turkey</t>
+  </si>
+  <si>
+    <t>House_mouse_(SE_Asia)</t>
+  </si>
+  <si>
+    <t>Japanese_rice_fish</t>
+  </si>
+  <si>
+    <t>Bighorn_sheep</t>
+  </si>
+  <si>
+    <t>Olive_baboon</t>
+  </si>
+  <si>
+    <t>Wild_boar</t>
+  </si>
+  <si>
+    <t>Cheetah</t>
+  </si>
+  <si>
+    <t>Bearded_dragon_lizard</t>
+  </si>
+  <si>
+    <t>Mallard</t>
+  </si>
+  <si>
+    <t>Naked_mole_rat</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Giant_panda</t>
+  </si>
+  <si>
+    <t>Sponge</t>
+  </si>
+  <si>
+    <t>Porifera</t>
+  </si>
+  <si>
+    <t>Japanese_pufferfish</t>
+  </si>
+  <si>
+    <t>Turkey_vulture</t>
+  </si>
+  <si>
+    <t>Little_egret</t>
+  </si>
+  <si>
+    <t>White-tailed_eagle</t>
+  </si>
+  <si>
+    <t>Bald_eagle</t>
+  </si>
+  <si>
+    <t>Budgerigar</t>
+  </si>
+  <si>
+    <t>Kea</t>
+  </si>
+  <si>
+    <t>Crested_ibis</t>
+  </si>
+  <si>
+    <t>Dalmatian_pelican</t>
+  </si>
+  <si>
+    <t>Great_black_cormorant</t>
+  </si>
+  <si>
+    <t>Orang-Utan_(Sumatran)</t>
+  </si>
+  <si>
+    <t>Orang-Utan_(Bornean)</t>
+  </si>
+  <si>
+    <t>Brachiopod</t>
+  </si>
+  <si>
+    <t>Brachiopoda</t>
+  </si>
+  <si>
+    <t>Tasmanian_devil</t>
+  </si>
+  <si>
+    <t>Tibetan_frog</t>
+  </si>
+  <si>
+    <t>Chimpanzee_C_African</t>
+  </si>
+  <si>
+    <t>Chimpanzee_W_African</t>
+  </si>
+  <si>
+    <t>Zebra_finch</t>
+  </si>
+  <si>
+    <t>African_green_monkey</t>
+  </si>
+  <si>
+    <t>Vervet_monkey</t>
+  </si>
+  <si>
+    <t>Mountain_gorilla</t>
+  </si>
+  <si>
+    <t>Eastern_lowland_gorilla_</t>
+  </si>
+  <si>
+    <t>Cross_River_gorilla</t>
+  </si>
+  <si>
+    <t>Western_lowland_gorilla</t>
+  </si>
+  <si>
+    <t>Minke_whale</t>
+  </si>
+  <si>
+    <t>Fin_whale</t>
+  </si>
+  <si>
+    <t>Finless_porpoise</t>
+  </si>
+  <si>
+    <t>Bottlenose_dolphin</t>
+  </si>
+  <si>
+    <t>Saker_falcon</t>
+  </si>
+  <si>
+    <t>Peregrine_falcon</t>
+  </si>
+  <si>
+    <t>Baiji</t>
+  </si>
+  <si>
+    <t>Albertin_2015</t>
+  </si>
+  <si>
+    <t>10.1038/nature14668</t>
+  </si>
+  <si>
+    <t>Cho_2013</t>
+  </si>
+  <si>
+    <t>10.1038/ncomms3433</t>
+  </si>
+  <si>
+    <t>Dobrynin_2015</t>
+  </si>
+  <si>
+    <t>10.1186/s13059-015-0837-4</t>
+  </si>
+  <si>
+    <t>Georges_2015</t>
+  </si>
+  <si>
+    <t>10.1186/s13742-015-0085-2</t>
+  </si>
+  <si>
+    <t>Huang_2013</t>
+  </si>
+  <si>
+    <t>10.1038/ng.2657</t>
+  </si>
+  <si>
+    <t>Kim_2011</t>
+  </si>
+  <si>
+    <t>10.1038/nature10533</t>
+  </si>
+  <si>
+    <t>Le_Duc_2015</t>
+  </si>
+  <si>
+    <t>10.1186/s13059-015-0711-4</t>
+  </si>
+  <si>
+    <t>Leffler_2012</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pbio.1001388</t>
+  </si>
+  <si>
+    <t>Li_2014</t>
+  </si>
+  <si>
+    <t>10.1186/s13059-014-0557-1</t>
+  </si>
+  <si>
+    <t>Locke_2011</t>
+  </si>
+  <si>
+    <t>10.1038/nature09687</t>
+  </si>
+  <si>
+    <t>Luo_2015</t>
+  </si>
+  <si>
+    <t>10.1038/ncomms9301</t>
+  </si>
+  <si>
+    <t>Miller_2011</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.1102838108</t>
+  </si>
+  <si>
+    <t>Sun_2015</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.1501764112</t>
+  </si>
+  <si>
+    <t>The_Chimpanzee_Sequencing_and_Analysis_Consortium_2005</t>
+  </si>
+  <si>
+    <t>10.1038/nature04072</t>
+  </si>
+  <si>
+    <t>Warren_2010</t>
+  </si>
+  <si>
+    <t>10.1038/nature08819</t>
+  </si>
+  <si>
+    <t>Warren_2015</t>
+  </si>
+  <si>
+    <t>10.1101/gr.192922.115</t>
+  </si>
+  <si>
+    <t>Xue_2015</t>
+  </si>
+  <si>
+    <t>10.1126/science.aaa3952</t>
+  </si>
+  <si>
+    <t>Yim_2014</t>
+  </si>
+  <si>
+    <t>10.1038/ng.2835</t>
+  </si>
+  <si>
+    <t>Zhan_2013</t>
+  </si>
+  <si>
+    <t>10.1038/ng.2588</t>
+  </si>
+  <si>
+    <t>Zhou_2013</t>
+  </si>
+  <si>
+    <t>10.1038/ncomms3708</t>
   </si>
 </sst>
 </file>
@@ -106,21 +690,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -148,22 +726,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +1055,7 @@
   <dimension ref="A1:F1048464"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,45 +1063,45 @@
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>1.13E-4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
@@ -535,19 +1109,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>1.8899999999999999E-4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
@@ -555,19 +1129,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>2.1899999999999998E-4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
@@ -575,19 +1149,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>1.4000000000000001E-5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
@@ -595,19 +1169,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
@@ -615,19 +1189,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>4.08E-4</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
@@ -635,19 +1209,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>1.25E-4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
@@ -655,19 +1229,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9">
         <v>5.9967585089140999E-4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
@@ -675,19 +1249,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10">
         <v>5.9189627228525105E-4</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
@@ -695,19 +1269,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11">
         <v>5.7893030794165304E-4</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
@@ -715,19 +1289,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12">
         <v>5.8152350081037204E-4</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
@@ -735,19 +1309,19 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13">
         <v>5.7115072933549399E-4</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
@@ -755,19 +1329,19 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14">
         <v>5.6726094003241398E-4</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
@@ -775,19 +1349,19 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15">
         <v>5.6077795786061498E-4</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
@@ -795,19 +1369,19 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16">
         <v>5.5818476499189598E-4</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
@@ -815,19 +1389,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17">
         <v>5.4132901134521796E-4</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
@@ -835,19 +1409,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18">
         <v>5.3743922204213903E-4</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
@@ -855,19 +1429,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19">
         <v>5.1928687196110205E-4</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
@@ -875,19 +1449,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20">
         <v>5.2706645056726099E-4</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
@@ -895,19 +1469,19 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21">
         <v>5.3614262560777899E-4</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
@@ -915,19 +1489,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22">
         <v>5.2965964343597999E-4</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
@@ -935,19 +1509,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23">
         <v>5.0761750405186299E-4</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
@@ -955,19 +1529,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24">
         <v>5.1539708265802204E-4</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="s">
@@ -975,19 +1549,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25">
         <v>5.0113452188006399E-4</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
@@ -995,19 +1569,19 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26">
         <v>4.9724473257698495E-4</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
         <v>17</v>
       </c>
       <c r="F26" t="s">
@@ -1015,19 +1589,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27">
         <v>4.9076175040518595E-4</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
         <v>17</v>
       </c>
       <c r="F27" t="s">
@@ -1035,19 +1609,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28">
         <v>5.1021069692058297E-4</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
@@ -1055,19 +1629,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29">
         <v>5.0761750405186299E-4</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
@@ -1075,19 +1649,19 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30">
         <v>4.9076175040518595E-4</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
         <v>17</v>
       </c>
       <c r="F30" t="s">
@@ -1095,19 +1669,19 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31">
         <v>4.1555915721231697E-4</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
@@ -1115,19 +1689,19 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32">
         <v>4.1685575364667701E-4</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="s">
@@ -1135,19 +1709,19 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33">
         <v>4.1166936790923799E-4</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
@@ -1155,19 +1729,19 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34">
         <v>4.18152350081037E-4</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" t="s">
         <v>17</v>
       </c>
       <c r="F34" t="s">
@@ -1175,19 +1749,19 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35">
         <v>4.41491085899513E-4</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
@@ -1195,19 +1769,19 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36">
         <v>4.4538087520259301E-4</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
@@ -1215,19 +1789,19 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37">
         <v>4.5445705024311101E-4</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
@@ -1235,19 +1809,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38">
         <v>4.6482982171798998E-4</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" t="s">
         <v>17</v>
       </c>
       <c r="F38" t="s">
@@ -1255,19 +1829,19 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39">
         <v>4.6871961102106901E-4</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
@@ -1275,19 +1849,19 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40">
         <v>4.55753646677471E-4</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" t="s">
         <v>17</v>
       </c>
       <c r="F40" t="s">
@@ -1295,19 +1869,19 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41">
         <v>4.5834683954619102E-4</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" t="s">
         <v>17</v>
       </c>
       <c r="F41" t="s">
@@ -1315,19 +1889,19 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42">
         <v>4.6094003241491002E-4</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" t="s">
         <v>17</v>
       </c>
       <c r="F42" t="s">
@@ -1335,19 +1909,19 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43">
         <v>4.41491085899513E-4</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
@@ -1355,249 +1929,1737 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C44" s="4"/>
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <v>6.2249314872774904E-3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45">
+        <v>2.7633010676537399E-2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46">
+        <v>8.7180154698687715E-3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47">
+        <v>8.7201021155475112E-3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>1.8514111393541199E-2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50">
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52">
+        <v>1.0489999999999999E-2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>4.7721654709916635E-4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>5.8390316765887776E-4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>4.862846441514567E-4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>7.2879552477607792E-4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>2.3059486223466153E-4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>3.01483021842445E-2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61">
+        <v>6.2249314872774904E-3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62">
+        <v>2.7633010676537399E-2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>1.2129503490739102E-3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64">
+        <v>1.54559564878465E-3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65">
+        <v>2.0995351326019503E-3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>1.4913104212410302E-3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>6.4017838343871803E-3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>9.1739608607904911E-3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69">
+        <v>8.7180154698687715E-3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70">
+        <v>8.7201021155475112E-3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>3.6260777468777403E-3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>3.8009968899166803E-3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>5.8835955205369401E-3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>4.4093818387130699E-3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75">
+        <v>1.8514111393541199E-2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>1.03745770978471E-3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+      <c r="F76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>6.1840191370500404E-3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>2.8670640132188504E-3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>2.3715410864986303E-3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>8.0906497826988208E-3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>3.0407617679220201E-3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>2.2177120351231402E-3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>1.8918139038842999E-3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>4.4082088124397199E-3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>179</v>
+      </c>
+      <c r="F85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>181</v>
+      </c>
+      <c r="F86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>183</v>
+      </c>
+      <c r="F87" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>6.8148688046647233E-4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>185</v>
+      </c>
+      <c r="F88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>1.5E-3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>187</v>
+      </c>
+      <c r="F89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>189</v>
+      </c>
+      <c r="F90" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91">
+        <v>2.3700000000000002E-2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>2.0300000000000001E-3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>189</v>
+      </c>
+      <c r="F92" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>2.16E-3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>189</v>
+      </c>
+      <c r="F94" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>189</v>
+      </c>
+      <c r="F95" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>189</v>
+      </c>
+      <c r="F96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>189</v>
+      </c>
+      <c r="F97" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>1.1799999999999998E-3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>191</v>
+      </c>
+      <c r="F98" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>2.5099999999999996E-3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>191</v>
+      </c>
+      <c r="F99" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E100" t="s">
+        <v>191</v>
+      </c>
+      <c r="F100" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="E101" t="s">
+        <v>191</v>
+      </c>
+      <c r="F101" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>4.3099999999999996E-3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>191</v>
+      </c>
+      <c r="F102" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>82</v>
+      </c>
+      <c r="B103" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>9.1E-4</v>
+      </c>
+      <c r="E103" t="s">
+        <v>191</v>
+      </c>
+      <c r="F103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>191</v>
+      </c>
+      <c r="F104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E105" t="s">
+        <v>191</v>
+      </c>
+      <c r="F105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>1.39E-3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>1.1974110032362459E-3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>193</v>
+      </c>
+      <c r="F107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>6.4724919093851134E-4</v>
+      </c>
+      <c r="E108" t="s">
+        <v>193</v>
+      </c>
+      <c r="F108" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" t="s">
+        <v>156</v>
+      </c>
+      <c r="D109">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>195</v>
+      </c>
+      <c r="F109" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>3.2045666666666669E-4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>197</v>
+      </c>
+      <c r="F110" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>199</v>
+      </c>
+      <c r="F111" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112" t="s">
+        <v>159</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>201</v>
+      </c>
+      <c r="F112" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" t="s">
+        <v>160</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E113" t="s">
+        <v>201</v>
+      </c>
+      <c r="F113" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>9.5E-4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>201</v>
+      </c>
+      <c r="F114" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" t="s">
+        <v>161</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>203</v>
+      </c>
+      <c r="F115" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>94</v>
+      </c>
+      <c r="B116" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>205</v>
+      </c>
+      <c r="F116" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>205</v>
+      </c>
+      <c r="F117" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>6.4788499999999995E-4</v>
+      </c>
+      <c r="E118" t="s">
+        <v>207</v>
+      </c>
+      <c r="F118" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119">
+        <v>6.42765E-4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>207</v>
+      </c>
+      <c r="F119" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>98</v>
+      </c>
+      <c r="B120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>9.8504800000000009E-4</v>
+      </c>
+      <c r="E120" t="s">
+        <v>207</v>
+      </c>
+      <c r="F120" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>1.438033E-3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>207</v>
+      </c>
+      <c r="F121" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>100</v>
+      </c>
+      <c r="B122" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>209</v>
+      </c>
+      <c r="F122" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>101</v>
+      </c>
+      <c r="B123" t="s">
+        <v>169</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>1.5100000000000001E-3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>209</v>
+      </c>
+      <c r="F123" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>209</v>
+      </c>
+      <c r="F124" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>1.42E-3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>209</v>
+      </c>
+      <c r="F125" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>211</v>
+      </c>
+      <c r="F126" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>211</v>
+      </c>
+      <c r="F127" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128" t="s">
+        <v>174</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>1.21E-4</v>
+      </c>
+      <c r="E128" t="s">
+        <v>213</v>
+      </c>
+      <c r="F128" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="1"/>
     </row>
     <row r="1048464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1048464" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C00C48A-6BAA-2843-8190-3569E278DEBB}">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1.95</v>
-      </c>
-      <c r="B1">
-        <v>5.4627831715210295E-4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2.0249999999999999</v>
-      </c>
-      <c r="B2">
-        <v>5.1132686084142298E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="B3">
-        <v>4.9708737864077597E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1.855</v>
-      </c>
-      <c r="B4">
-        <v>5.1779935275080903E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1.91</v>
-      </c>
-      <c r="B5">
-        <v>4.8543689320388299E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1.96999999999999</v>
-      </c>
-      <c r="B6">
-        <v>4.67313915857605E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1.885</v>
-      </c>
-      <c r="B7">
-        <v>4.5954692556634202E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1.8</v>
-      </c>
-      <c r="B8">
-        <v>4.6343042071197299E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2.14</v>
-      </c>
-      <c r="B9">
-        <v>4.2718446601941701E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>3.1599999999999899</v>
-      </c>
-      <c r="B10">
-        <v>6.0323624595469199E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>3.1850000000000001</v>
-      </c>
-      <c r="B11">
-        <v>5.9288025889967595E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>3.18</v>
-      </c>
-      <c r="B12">
-        <v>5.7993527508090603E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3.12</v>
-      </c>
-      <c r="B13">
-        <v>5.7864077669902904E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>3.13</v>
-      </c>
-      <c r="B14">
-        <v>5.2686084142394797E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>3.18</v>
-      </c>
-      <c r="B15">
-        <v>4.82847896440129E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>3.1850000000000001</v>
-      </c>
-      <c r="B16">
-        <v>4.4142394822006402E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>3.07</v>
-      </c>
-      <c r="B17">
-        <v>4.7378640776699001E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2.92</v>
-      </c>
-      <c r="B18">
-        <v>4.7637540453074399E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2.875</v>
-      </c>
-      <c r="B19">
-        <v>4.9320388349514499E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2.86</v>
-      </c>
-      <c r="B20">
-        <v>5.8899676375404498E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2.875</v>
-      </c>
-      <c r="B21">
-        <v>5.6181229773462696E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2.8149999999999999</v>
-      </c>
-      <c r="B22">
-        <v>5.4498381877022596E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2.9550000000000001</v>
-      </c>
-      <c r="B23">
-        <v>5.4239482200647198E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2.895</v>
-      </c>
-      <c r="B24">
-        <v>5.2944983818770195E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2.9849999999999999</v>
-      </c>
-      <c r="B25">
-        <v>5.2038834951456301E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2.95</v>
-      </c>
-      <c r="B26">
-        <v>5.1132686084142298E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2.98999999999999</v>
-      </c>
-      <c r="B27">
-        <v>5.08737864077669E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>3.03</v>
-      </c>
-      <c r="B28">
-        <v>5.1262135922330095E-4</v>
-      </c>
+      <c r="A1048464" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/20231222_published_h_estimates.xlsx
+++ b/Data/20231222_published_h_estimates.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Alter/Daus_WGS_Paper/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AA88AA-F0D3-3343-9E9C-CBC981CD1AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6974B0E-33CA-644C-9D20-1A0144F9DFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25280" windowHeight="19540" xr2:uid="{51F5D5FD-8FFD-2B40-8856-983D10A2450B}"/>
+    <workbookView xWindow="7600" yWindow="740" windowWidth="18760" windowHeight="16960" xr2:uid="{51F5D5FD-8FFD-2B40-8856-983D10A2450B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -756,9 +756,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -796,7 +796,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -902,7 +902,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1044,7 +1044,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:F1048464"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1099,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1.13E-4</v>
+        <v>1.4000000000000001E-5</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -1119,7 +1119,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>1.8899999999999999E-4</v>
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1139,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>2.1899999999999998E-4</v>
+        <v>1.13E-4</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1150,27 +1150,27 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1.4000000000000001E-5</v>
+        <v>1.21E-4</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1179,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>1.9000000000000001E-5</v>
+        <v>1.25E-4</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>4.08E-4</v>
+        <v>1.8899999999999999E-4</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1210,122 +1210,122 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1.25E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>5.9967585089140999E-4</v>
+        <v>2.1899999999999998E-4</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>5.9189627228525105E-4</v>
+        <v>2.3059486223466153E-4</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>5.7893030794165304E-4</v>
+        <v>3.2045666666666669E-4</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>5.8152350081037204E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13">
-        <v>5.7115072933549399E-4</v>
+        <v>4.08E-4</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1339,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>5.6726094003241398E-4</v>
+        <v>4.1166936790923799E-4</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -1359,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>5.6077795786061498E-4</v>
+        <v>4.1555915721231697E-4</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -1379,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>5.5818476499189598E-4</v>
+        <v>4.1685575364667701E-4</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -1399,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>5.4132901134521796E-4</v>
+        <v>4.18152350081037E-4</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
@@ -1410,62 +1410,62 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18">
-        <v>5.3743922204213903E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19">
-        <v>5.1928687196110205E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20">
-        <v>5.2706645056726099E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1479,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>5.3614262560777899E-4</v>
+        <v>4.41491085899513E-4</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>5.2965964343597999E-4</v>
+        <v>4.41491085899513E-4</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
@@ -1519,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>5.0761750405186299E-4</v>
+        <v>4.4538087520259301E-4</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
@@ -1539,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>5.1539708265802204E-4</v>
+        <v>4.5445705024311101E-4</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
@@ -1559,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>5.0113452188006399E-4</v>
+        <v>4.55753646677471E-4</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
@@ -1579,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>4.9724473257698495E-4</v>
+        <v>4.5834683954619102E-4</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
@@ -1599,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>4.9076175040518595E-4</v>
+        <v>4.6094003241491002E-4</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
@@ -1619,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>5.1021069692058297E-4</v>
+        <v>4.6482982171798998E-4</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
@@ -1639,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>5.0761750405186299E-4</v>
+        <v>4.6871961102106901E-4</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
@@ -1650,42 +1650,42 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30">
-        <v>4.9076175040518595E-4</v>
+        <v>4.7721654709916635E-4</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31">
-        <v>4.1555915721231697E-4</v>
+        <v>4.862846441514567E-4</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1699,7 +1699,7 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <v>4.1685575364667701E-4</v>
+        <v>4.9076175040518595E-4</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
@@ -1719,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>4.1166936790923799E-4</v>
+        <v>4.9076175040518595E-4</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
@@ -1739,7 +1739,7 @@
         <v>5</v>
       </c>
       <c r="D34">
-        <v>4.18152350081037E-4</v>
+        <v>4.9724473257698495E-4</v>
       </c>
       <c r="E34" t="s">
         <v>17</v>
@@ -1759,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>4.41491085899513E-4</v>
+        <v>5.0113452188006399E-4</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
@@ -1779,7 +1779,7 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>4.4538087520259301E-4</v>
+        <v>5.0761750405186299E-4</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -1799,7 +1799,7 @@
         <v>5</v>
       </c>
       <c r="D37">
-        <v>4.5445705024311101E-4</v>
+        <v>5.0761750405186299E-4</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
@@ -1819,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>4.6482982171798998E-4</v>
+        <v>5.1021069692058297E-4</v>
       </c>
       <c r="E38" t="s">
         <v>17</v>
@@ -1839,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="D39">
-        <v>4.6871961102106901E-4</v>
+        <v>5.1539708265802204E-4</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
@@ -1859,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="D40">
-        <v>4.55753646677471E-4</v>
+        <v>5.1928687196110205E-4</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
@@ -1879,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>4.5834683954619102E-4</v>
+        <v>5.2706645056726099E-4</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -1899,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <v>4.6094003241491002E-4</v>
+        <v>5.2965964343597999E-4</v>
       </c>
       <c r="E42" t="s">
         <v>17</v>
@@ -1919,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>4.41491085899513E-4</v>
+        <v>5.3614262560777899E-4</v>
       </c>
       <c r="E43" t="s">
         <v>17</v>
@@ -1930,576 +1930,576 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>6.2249314872774904E-3</v>
+        <v>5.3743922204213903E-4</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>2.7633010676537399E-2</v>
+        <v>5.4132901134521796E-4</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>8.7180154698687715E-3</v>
+        <v>5.5818476499189598E-4</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>8.7201021155475112E-3</v>
+        <v>5.6077795786061498E-4</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>1.8514111393541199E-2</v>
+        <v>5.6726094003241398E-4</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>3.2799999999999999E-3</v>
+        <v>5.7115072933549399E-4</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D50">
-        <v>3.5799999999999998E-3</v>
+        <v>5.7893030794165304E-4</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>1.1000000000000001E-3</v>
+        <v>5.8152350081037204E-4</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>1.0489999999999999E-2</v>
+        <v>5.8390316765887776E-4</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>7.7999999999999999E-4</v>
+        <v>5.9189627228525105E-4</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>8.0000000000000004E-4</v>
+        <v>5.9967585089140999E-4</v>
       </c>
       <c r="E54" t="s">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
       </c>
       <c r="D55">
-        <v>4.7721654709916635E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E55" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="F55" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56">
-        <v>5.8390316765887776E-4</v>
+        <v>6.0999999999999997E-4</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="F56" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57">
-        <v>4.862846441514567E-4</v>
+        <v>6.42765E-4</v>
       </c>
       <c r="E57" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="F57" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
       </c>
       <c r="D58">
-        <v>7.2879552477607792E-4</v>
+        <v>6.4724919093851134E-4</v>
       </c>
       <c r="E58" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="F58" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
       <c r="D59">
-        <v>2.3059486223466153E-4</v>
+        <v>6.4788499999999995E-4</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="F59" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
       </c>
       <c r="D60">
-        <v>3.01483021842445E-2</v>
+        <v>6.8148688046647233E-4</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>6.2249314872774904E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D62">
-        <v>2.7633010676537399E-2</v>
+        <v>7.2879552477607792E-4</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D63">
-        <v>1.2129503490739102E-3</v>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D64">
-        <v>1.54559564878465E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>2.0995351326019503E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
       <c r="D66">
-        <v>1.4913104212410302E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
       </c>
       <c r="D67">
-        <v>6.4017838343871803E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
       </c>
       <c r="D68">
-        <v>9.1739608607904911E-3</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>8.7180154698687715E-3</v>
+        <v>9.1E-4</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>8.7201021155475112E-3</v>
+        <v>9.5E-4</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
       </c>
       <c r="D71">
-        <v>3.6260777468777403E-3</v>
+        <v>9.8504800000000009E-4</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
       </c>
       <c r="D72">
-        <v>3.8009968899166803E-3</v>
+        <v>1.03745770978471E-3</v>
       </c>
       <c r="E72" t="s">
         <v>40</v>
@@ -2510,76 +2510,76 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D73">
-        <v>5.8835955205369401E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
       <c r="D74">
-        <v>4.4093818387130699E-3</v>
+        <v>1.1799999999999998E-3</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>1.8514111393541199E-2</v>
+        <v>1.1974110032362459E-3</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
       </c>
       <c r="D76">
-        <v>1.03745770978471E-3</v>
+        <v>1.2129503490739102E-3</v>
       </c>
       <c r="E76" t="s">
         <v>40</v>
@@ -2590,116 +2590,116 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
       </c>
       <c r="D77">
-        <v>6.1840191370500404E-3</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
       </c>
       <c r="D78">
-        <v>2.8670640132188504E-3</v>
+        <v>1.39E-3</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
       </c>
       <c r="D79">
-        <v>2.3715410864986303E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
       </c>
       <c r="D80">
-        <v>8.0906497826988208E-3</v>
+        <v>1.42E-3</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
       </c>
       <c r="D81">
-        <v>3.0407617679220201E-3</v>
+        <v>1.438033E-3</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
       <c r="D82">
-        <v>2.2177120351231402E-3</v>
+        <v>1.4913104212410302E-3</v>
       </c>
       <c r="E82" t="s">
         <v>40</v>
@@ -2710,176 +2710,176 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
       <c r="D83">
-        <v>1.8918139038842999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
       </c>
       <c r="D84">
-        <v>4.4082088124397199E-3</v>
+        <v>1.5100000000000001E-3</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="D85">
-        <v>2.0000000000000001E-4</v>
+        <v>1.54559564878465E-3</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
       <c r="D86">
-        <v>8.5000000000000006E-3</v>
+        <v>1.7600000000000001E-3</v>
       </c>
       <c r="E86" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F86" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
       </c>
       <c r="D87">
-        <v>2.6099999999999999E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E87" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="F87" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
       </c>
       <c r="D88">
-        <v>6.8148688046647233E-4</v>
+        <v>1.8918139038842999E-3</v>
       </c>
       <c r="E88" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
       </c>
       <c r="D89">
-        <v>1.5E-3</v>
+        <v>2.0300000000000001E-3</v>
       </c>
       <c r="E89" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F89" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="D90">
-        <v>1.3500000000000001E-3</v>
+        <v>2.0995351326019503E-3</v>
       </c>
       <c r="E90" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B91" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="D91">
-        <v>2.3700000000000002E-2</v>
+        <v>2.16E-3</v>
       </c>
       <c r="E91" t="s">
         <v>189</v>
@@ -2890,22 +2890,22 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
       </c>
       <c r="D92">
-        <v>2.0300000000000001E-3</v>
+        <v>2.2177120351231402E-3</v>
       </c>
       <c r="E92" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2919,7 +2919,7 @@
         <v>5</v>
       </c>
       <c r="D93">
-        <v>2.16E-3</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="E93" t="s">
         <v>189</v>
@@ -2930,22 +2930,22 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
       </c>
       <c r="D94">
-        <v>2.2699999999999999E-3</v>
+        <v>2.3715410864986303E-3</v>
       </c>
       <c r="E94" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2970,216 +2970,216 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
       </c>
       <c r="D96">
-        <v>2.6800000000000001E-3</v>
+        <v>2.5099999999999996E-3</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
       </c>
       <c r="D97">
-        <v>4.0000000000000001E-3</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
       </c>
       <c r="D98">
-        <v>1.1799999999999998E-3</v>
+        <v>2.6800000000000001E-3</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
       </c>
       <c r="D99">
-        <v>2.5099999999999996E-3</v>
+        <v>2.8670640132188504E-3</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
       </c>
       <c r="D100">
-        <v>4.0000000000000002E-4</v>
+        <v>3.0407617679220201E-3</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D101">
-        <v>4.2999999999999999E-4</v>
+        <v>3.2799999999999999E-3</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D102">
-        <v>4.3099999999999996E-3</v>
+        <v>3.5799999999999998E-3</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
       </c>
       <c r="D103">
-        <v>9.1E-4</v>
+        <v>3.6260777468777403E-3</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
       </c>
       <c r="D104">
-        <v>4.2999999999999999E-4</v>
+        <v>3.8009968899166803E-3</v>
       </c>
       <c r="E104" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
       </c>
       <c r="D105">
-        <v>5.9999999999999995E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E105" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F105" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B106" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
       </c>
       <c r="D106">
-        <v>1.39E-3</v>
+        <v>4.3099999999999996E-3</v>
       </c>
       <c r="E106" t="s">
         <v>191</v>
@@ -3190,442 +3190,442 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B107" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
       </c>
       <c r="D107">
-        <v>1.1974110032362459E-3</v>
+        <v>4.4082088124397199E-3</v>
       </c>
       <c r="E107" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
       </c>
       <c r="D108">
-        <v>6.4724919093851134E-4</v>
+        <v>4.4093818387130699E-3</v>
       </c>
       <c r="E108" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="F108" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C109" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>1.6E-2</v>
+        <v>5.8835955205369401E-3</v>
       </c>
       <c r="E109" t="s">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="F109" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B110" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
       </c>
       <c r="D110">
-        <v>3.2045666666666669E-4</v>
+        <v>6.1840191370500404E-3</v>
       </c>
       <c r="E110" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D111">
-        <v>4.2999999999999999E-4</v>
+        <v>6.2249314872774904E-3</v>
       </c>
       <c r="E111" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>200</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D112">
-        <v>1.7600000000000001E-3</v>
+        <v>6.2249314872774904E-3</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B113" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
       </c>
       <c r="D113">
-        <v>8.0000000000000004E-4</v>
+        <v>6.4017838343871803E-3</v>
       </c>
       <c r="E113" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
       </c>
       <c r="D114">
-        <v>9.5E-4</v>
+        <v>8.0906497826988208E-3</v>
       </c>
       <c r="E114" t="s">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
       <c r="D115">
-        <v>1.4E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="E115" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="F115" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D116">
-        <v>8.0000000000000004E-4</v>
+        <v>8.7180154698687715E-3</v>
       </c>
       <c r="E116" t="s">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D117">
-        <v>1.8E-3</v>
+        <v>8.7180154698687715E-3</v>
       </c>
       <c r="E117" t="s">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D118">
-        <v>6.4788499999999995E-4</v>
+        <v>8.7201021155475112E-3</v>
       </c>
       <c r="E118" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D119">
-        <v>6.42765E-4</v>
+        <v>8.7201021155475112E-3</v>
       </c>
       <c r="E119" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
       <c r="D120">
-        <v>9.8504800000000009E-4</v>
+        <v>9.1739608607904911E-3</v>
       </c>
       <c r="E120" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D121">
-        <v>1.438033E-3</v>
+        <v>1.0489999999999999E-2</v>
       </c>
       <c r="E121" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="D122">
-        <v>6.0999999999999997E-4</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E122" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F122" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D123">
-        <v>1.5100000000000001E-3</v>
+        <v>1.8514111393541199E-2</v>
       </c>
       <c r="E123" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D124">
-        <v>8.5999999999999998E-4</v>
+        <v>1.8514111393541199E-2</v>
       </c>
       <c r="E124" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B125" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="D125">
-        <v>1.42E-3</v>
+        <v>2.3700000000000002E-2</v>
       </c>
       <c r="E125" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="F125" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D126">
-        <v>8.0000000000000004E-4</v>
+        <v>2.7633010676537399E-2</v>
       </c>
       <c r="E126" t="s">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D127">
-        <v>6.9999999999999999E-4</v>
+        <v>2.7633010676537399E-2</v>
       </c>
       <c r="E127" t="s">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
       </c>
       <c r="D128">
-        <v>1.21E-4</v>
+        <v>3.01483021842445E-2</v>
       </c>
       <c r="E128" t="s">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
@@ -3662,6 +3662,11 @@
       <c r="A1048464" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F128" xr:uid="{8322C5C2-F8BD-6340-96A4-4B995158B38F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F128">
+      <sortCondition ref="D1:D128"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>